--- a/api/xlsx/es/ReportingOrganisationGroup.xlsx
+++ b/api/xlsx/es/ReportingOrganisationGroup.xlsx
@@ -22,48 +22,48 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
     <t>BE-BCE_KBO-0264814354</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
     <t>BE</t>
   </si>
   <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
     <t>XM-DAC-2-10</t>
   </si>
   <si>
     <t>CA-3</t>
   </si>
   <si>
+    <t>Canadá</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>CA-4</t>
   </si>
   <si>
     <t>DE-1</t>
   </si>
   <si>
+    <t>Alemania</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>Alemania</t>
-  </si>
-  <si>
     <t>XI-IATI-IKI</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>XI-IATI-EC_ECHO</t>
   </si>
   <si>
+    <t>Comisión Europea</t>
+  </si>
+  <si>
     <t>EC</t>
   </si>
   <si>
-    <t>Comisión Europea</t>
-  </si>
-  <si>
     <t>XI-IATI-EC_INTPA</t>
   </si>
   <si>
@@ -91,36 +91,36 @@
     <t>ES-DIR3-E04585801</t>
   </si>
   <si>
+    <t>España</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
     <t>XM-DAC-50-21</t>
   </si>
   <si>
     <t>FR-3</t>
   </si>
   <si>
+    <t>Francia</t>
+  </si>
+  <si>
     <t>FR</t>
   </si>
   <si>
-    <t>Francia</t>
-  </si>
-  <si>
     <t>FR-6</t>
   </si>
   <si>
     <t>GB-GOV-GB-9</t>
   </si>
   <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
     <t>GB</t>
   </si>
   <si>
-    <t>Reino Unido</t>
-  </si>
-  <si>
     <t>GB-GOV-9</t>
   </si>
   <si>
@@ -178,24 +178,24 @@
     <t>XM-DAC-701-2</t>
   </si>
   <si>
+    <t>Japón</t>
+  </si>
+  <si>
     <t>JP</t>
   </si>
   <si>
-    <t>Japón</t>
-  </si>
-  <si>
     <t>XM-DAC-701-8</t>
   </si>
   <si>
     <t>NL-KVK-08215619-201210000</t>
   </si>
   <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
     <t>NL</t>
   </si>
   <si>
-    <t>Países Bajos</t>
-  </si>
-  <si>
     <t>NL-KVK-27367015</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>41120</t>
   </si>
   <si>
+    <t>Naciones Unidas</t>
+  </si>
+  <si>
     <t>UN</t>
   </si>
   <si>
-    <t>Naciones Unidas</t>
-  </si>
-  <si>
     <t>41AAA</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>US-GOV-18</t>
   </si>
   <si>
+    <t>Estados Unidos de América</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
-    <t>Estados Unidos de América</t>
-  </si>
-  <si>
     <t>US-18</t>
   </si>
   <si>
@@ -373,10 +373,10 @@
     <t>44000</t>
   </si>
   <si>
+    <t>El Grupo del Banco Mundial</t>
+  </si>
+  <si>
     <t>WB</t>
-  </si>
-  <si>
-    <t>El Grupo del Banco Mundial</t>
   </si>
   <si>
     <t>XI-IATI-WBTF</t>

--- a/api/xlsx/es/ReportingOrganisationGroup.xlsx
+++ b/api/xlsx/es/ReportingOrganisationGroup.xlsx
@@ -22,48 +22,48 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>BE-BCE_KBO-0264814354</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>BE</t>
+  </si>
+  <si>
     <t>Bélgica</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>XM-DAC-2-10</t>
   </si>
   <si>
     <t>CA-3</t>
   </si>
   <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>Canadá</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>CA-4</t>
   </si>
   <si>
     <t>DE-1</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
     <t>Alemania</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>XI-IATI-IKI</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>XI-IATI-EC_ECHO</t>
   </si>
   <si>
+    <t>EC</t>
+  </si>
+  <si>
     <t>Comisión Europea</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
     <t>XI-IATI-EC_INTPA</t>
   </si>
   <si>
@@ -91,36 +91,36 @@
     <t>ES-DIR3-E04585801</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>España</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>XM-DAC-50-21</t>
   </si>
   <si>
     <t>FR-3</t>
   </si>
   <si>
+    <t>FR</t>
+  </si>
+  <si>
     <t>Francia</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>FR-6</t>
   </si>
   <si>
     <t>GB-GOV-GB-9</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
     <t>Reino Unido</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>GB-GOV-9</t>
   </si>
   <si>
@@ -178,24 +178,24 @@
     <t>XM-DAC-701-2</t>
   </si>
   <si>
+    <t>JP</t>
+  </si>
+  <si>
     <t>Japón</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>XM-DAC-701-8</t>
   </si>
   <si>
     <t>NL-KVK-08215619-201210000</t>
   </si>
   <si>
+    <t>NL</t>
+  </si>
+  <si>
     <t>Países Bajos</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>NL-KVK-27367015</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>41120</t>
   </si>
   <si>
+    <t>UN</t>
+  </si>
+  <si>
     <t>Naciones Unidas</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
     <t>41AAA</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>US-GOV-18</t>
   </si>
   <si>
+    <t>US</t>
+  </si>
+  <si>
     <t>Estados Unidos de América</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>US-18</t>
   </si>
   <si>
@@ -373,10 +373,10 @@
     <t>44000</t>
   </si>
   <si>
+    <t>WB</t>
+  </si>
+  <si>
     <t>El Grupo del Banco Mundial</t>
-  </si>
-  <si>
-    <t>WB</t>
   </si>
   <si>
     <t>XI-IATI-WBTF</t>
